--- a/data/14/testData_demand_source_14.xlsx
+++ b/data/14/testData_demand_source_14.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoxiangyang/Desktop/Git/RobustPowerPlanning/data/14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FFC64C-95AB-C441-892A-58D1C2F0051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5E7AFEFF-27CC-4246-8A2A-8B603225BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testDataP_14" sheetId="1" r:id="rId1"/>
+    <sheet name="testDataQ_14" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">testDataP_14!$B$1:$CS$1</definedName>
@@ -879,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CK7" sqref="CK7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8511,4 +8512,7642 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="F1">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>5.45E-2</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="S1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>1.0889</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="Y1">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="Z1">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="AG1">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="AN1">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>4.65E-2</v>
+      </c>
+      <c r="AV1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="AY1">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>5.33E-2</v>
+      </c>
+      <c r="BD1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="BK1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="BL1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="BR1">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>1.0455000000000001</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="CG1">
+        <v>5.45E-2</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>0</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="CN1">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="CO1">
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <v>0</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <f>MAX(B1:CS1)</f>
+        <v>1.0889</v>
+      </c>
+      <c r="CU1">
+        <f>0.8*CT1</f>
+        <v>0.87112000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.44369999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="E2">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="H2">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="K2">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="L2">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="M2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N2">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="O2">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="P2">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="Q2">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="R2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S2">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="T2">
+        <v>0.3669</v>
+      </c>
+      <c r="U2">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="V2">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="W2">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="X2">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="Y2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="Z2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="AA2">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="AB2">
+        <v>3.56E-2</v>
+      </c>
+      <c r="AC2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="AE2">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AF2">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AG2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AH2">
+        <v>1.18E-2</v>
+      </c>
+      <c r="AI2">
+        <v>1.18E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AK2">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AL2">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="AM2">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="AN2">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="AO2">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="AP2">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="AQ2">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.1125</v>
+      </c>
+      <c r="AS2">
+        <v>0.1004</v>
+      </c>
+      <c r="AT2">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="AU2">
+        <v>0.2011</v>
+      </c>
+      <c r="AV2">
+        <v>0.1348</v>
+      </c>
+      <c r="AW2">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="AX2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AY2">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="AZ2">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="BA2">
+        <v>0.1162</v>
+      </c>
+      <c r="BB2">
+        <v>0.1143</v>
+      </c>
+      <c r="BC2">
+        <v>0.114</v>
+      </c>
+      <c r="BD2">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="BE2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="BF2">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="BG2">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="BH2">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="BI2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="BJ2">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="BL2">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="BM2">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="BN2">
+        <v>1.2695000000000001</v>
+      </c>
+      <c r="BO2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="BP2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="BQ2">
+        <v>1.3424</v>
+      </c>
+      <c r="BR2">
+        <v>1.0133000000000001</v>
+      </c>
+      <c r="BS2">
+        <v>1.3244</v>
+      </c>
+      <c r="BT2">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="BU2">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="BV2">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="BX2">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="BY2">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="CA2">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="CB2">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="CC2">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="CD2">
+        <v>0.52990000000000004</v>
+      </c>
+      <c r="CE2">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="CF2">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="CG2">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="CH2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="CI2">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="CJ2">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="CK2">
+        <v>0.158</v>
+      </c>
+      <c r="CL2">
+        <v>0.52090000000000003</v>
+      </c>
+      <c r="CM2">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="CN2">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.6129</v>
+      </c>
+      <c r="CP2">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="CQ2">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="CR2">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="CS2">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="CT2">
+        <f t="shared" ref="CT2:CT8" si="0">MAX(B2:CS2)</f>
+        <v>1.3424</v>
+      </c>
+      <c r="CU2">
+        <f t="shared" ref="CU2:CU8" si="1">0.8*CT2</f>
+        <v>1.07392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.40310000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.246</v>
+      </c>
+      <c r="I3">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.245</v>
+      </c>
+      <c r="L3">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.2205</v>
+      </c>
+      <c r="N3">
+        <v>0.2324</v>
+      </c>
+      <c r="O3">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="S3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="V3">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="W3">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.3629</v>
+      </c>
+      <c r="AB3">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="AF3">
+        <v>0.36780000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>0.36780000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>0.3518</v>
+      </c>
+      <c r="AI3">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="AJ3">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AK3">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="AL3">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="AM3">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="AN3">
+        <v>1.2576000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>1.3249</v>
+      </c>
+      <c r="AP3">
+        <v>1.4413</v>
+      </c>
+      <c r="AQ3">
+        <v>1.4446000000000001</v>
+      </c>
+      <c r="AR3">
+        <v>1.4446000000000001</v>
+      </c>
+      <c r="AS3">
+        <v>1.4614</v>
+      </c>
+      <c r="AT3">
+        <v>0.65</v>
+      </c>
+      <c r="AU3">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="AV3">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="AW3">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="AX3">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="AZ3">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="BA3">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="BB3">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="BC3">
+        <v>0.3458</v>
+      </c>
+      <c r="BD3">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="BE3">
+        <v>0.4194</v>
+      </c>
+      <c r="BF3">
+        <v>0.3493</v>
+      </c>
+      <c r="BG3">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="BH3">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="BI3">
+        <v>0.4778</v>
+      </c>
+      <c r="BJ3">
+        <v>0.55669999999999997</v>
+      </c>
+      <c r="BK3">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="BM3">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="BN3">
+        <v>0.40529999999999999</v>
+      </c>
+      <c r="BO3">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="BP3">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="BQ3">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="BR3">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="BS3">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="BT3">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="BU3">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="BV3">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="BW3">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="BX3">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="BY3">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="BZ3">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="CA3">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="CB3">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="CC3">
+        <v>0.46610000000000001</v>
+      </c>
+      <c r="CD3">
+        <v>0.64259999999999995</v>
+      </c>
+      <c r="CE3">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="CF3">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="CG3">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="CH3">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="CJ3">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="CK3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="CL3">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="CM3">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="CN3">
+        <v>0.59509999999999996</v>
+      </c>
+      <c r="CO3">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="CP3">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="CQ3">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="CR3">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="CS3">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="CT3">
+        <f t="shared" si="0"/>
+        <v>1.4614</v>
+      </c>
+      <c r="CU3">
+        <f t="shared" si="1"/>
+        <v>1.1691200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.3911</v>
+      </c>
+      <c r="C4">
+        <v>0.3805</v>
+      </c>
+      <c r="D4">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.15</v>
+      </c>
+      <c r="H4">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.1401</v>
+      </c>
+      <c r="S4">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="T4">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="U4">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.1741</v>
+      </c>
+      <c r="W4">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="X4">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>0.1401</v>
+      </c>
+      <c r="AB4">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.1376</v>
+      </c>
+      <c r="AD4">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.1401</v>
+      </c>
+      <c r="AH4">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="AI4">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1419</v>
+      </c>
+      <c r="AK4">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="AL4">
+        <v>0.1401</v>
+      </c>
+      <c r="AM4">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="AN4">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="AO4">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="AP4">
+        <v>0.2442</v>
+      </c>
+      <c r="AQ4">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="AR4">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="AS4">
+        <v>0.1487</v>
+      </c>
+      <c r="AT4">
+        <v>0.1487</v>
+      </c>
+      <c r="AU4">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="AV4">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="AW4">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="AX4">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="AY4">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AZ4">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="BA4">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="BB4">
+        <v>0.1196</v>
+      </c>
+      <c r="BC4">
+        <v>0.1153</v>
+      </c>
+      <c r="BD4">
+        <v>0.1128</v>
+      </c>
+      <c r="BE4">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="BF4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.2646</v>
+      </c>
+      <c r="BH4">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="BI4">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="BJ4">
+        <v>0.2324</v>
+      </c>
+      <c r="BK4">
+        <v>0.40660000000000002</v>
+      </c>
+      <c r="BL4">
+        <v>0.4103</v>
+      </c>
+      <c r="BM4">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="BN4">
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="BO4">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="BP4">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="BQ4">
+        <v>0.2268</v>
+      </c>
+      <c r="BR4">
+        <v>0.2268</v>
+      </c>
+      <c r="BS4">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="BT4">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="BU4">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="BV4">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="BW4">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="BX4">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="BY4">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="BZ4">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="CA4">
+        <v>0.1091</v>
+      </c>
+      <c r="CB4">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>0.1091</v>
+      </c>
+      <c r="CD4">
+        <v>0.1066</v>
+      </c>
+      <c r="CE4">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="CF4">
+        <v>0.2336</v>
+      </c>
+      <c r="CG4">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="CH4">
+        <v>0.2591</v>
+      </c>
+      <c r="CI4">
+        <v>0.1958</v>
+      </c>
+      <c r="CJ4">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="CL4">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="CM4">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="CN4">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="CO4">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="CP4">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="CQ4">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="CR4">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="CS4">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="CT4">
+        <f t="shared" si="0"/>
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="CU4">
+        <f t="shared" si="1"/>
+        <v>0.71296000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.29E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.23E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="P5">
+        <v>6.88E-2</v>
+      </c>
+      <c r="Q5">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="R5">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="S5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="T5">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="U5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="V5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="W5">
+        <v>2.23E-2</v>
+      </c>
+      <c r="X5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="Y5">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="Z5">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="AA5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AB5">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="AC5">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="AD5">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="AE5">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="AF5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AG5">
+        <v>2.23E-2</v>
+      </c>
+      <c r="AH5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AI5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AK5">
+        <v>2.23E-2</v>
+      </c>
+      <c r="AL5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="AM5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="AN5">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="AO5">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="AP5">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="AR5">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="AS5">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AT5">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="AU5">
+        <v>0.7208</v>
+      </c>
+      <c r="AV5">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="AW5">
+        <v>0.6371</v>
+      </c>
+      <c r="AX5">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="AY5">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="AZ5">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="BA5">
+        <v>0.41089999999999999</v>
+      </c>
+      <c r="BB5">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="BC5">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="BD5">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="BE5">
+        <v>0.1221</v>
+      </c>
+      <c r="BF5">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="BG5">
+        <v>1.67E-2</v>
+      </c>
+      <c r="BH5">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="BI5">
+        <v>1.67E-2</v>
+      </c>
+      <c r="BJ5">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="BK5">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="BL5">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="BM5">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="BN5">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="BO5">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="BP5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="BQ5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="BR5">
+        <v>2.29E-2</v>
+      </c>
+      <c r="BS5">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="BT5">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="BU5">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="BV5">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="BW5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="BX5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="BY5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="BZ5">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="CA5">
+        <v>1.55E-2</v>
+      </c>
+      <c r="CB5">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="CC5">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="CD5">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="CE5">
+        <v>1.55E-2</v>
+      </c>
+      <c r="CF5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="CG5">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="CH5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="CI5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="CJ5">
+        <v>1.43E-2</v>
+      </c>
+      <c r="CK5">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="CL5">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="CM5">
+        <v>0.41710000000000003</v>
+      </c>
+      <c r="CN5">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="CO5">
+        <v>0.7641</v>
+      </c>
+      <c r="CP5">
+        <v>0.62970000000000004</v>
+      </c>
+      <c r="CQ5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="CR5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="CS5">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="CT5">
+        <f t="shared" si="0"/>
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="CU5">
+        <f t="shared" si="1"/>
+        <v>0.67232000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.72E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.1011</v>
+      </c>
+      <c r="H6">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.3644</v>
+      </c>
+      <c r="K6">
+        <v>0.1195</v>
+      </c>
+      <c r="L6">
+        <v>0.1686</v>
+      </c>
+      <c r="M6">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="N6">
+        <v>9.74E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="P6">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.129</v>
+      </c>
+      <c r="R6">
+        <v>0.1147</v>
+      </c>
+      <c r="S6">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="T6">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="U6">
+        <v>0.1389</v>
+      </c>
+      <c r="V6">
+        <v>0.1275</v>
+      </c>
+      <c r="W6">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="X6">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.1021</v>
+      </c>
+      <c r="Z6">
+        <v>0.1021</v>
+      </c>
+      <c r="AA6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>9.74E-2</v>
+      </c>
+      <c r="AC6">
+        <v>0.1268</v>
+      </c>
+      <c r="AD6">
+        <v>0.1062</v>
+      </c>
+      <c r="AE6">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AG6">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AI6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="AK6">
+        <v>0.1216</v>
+      </c>
+      <c r="AL6">
+        <v>9.35E-2</v>
+      </c>
+      <c r="AM6">
+        <v>0.1268</v>
+      </c>
+      <c r="AN6">
+        <v>0.1119</v>
+      </c>
+      <c r="AO6">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="AP6">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="AQ6">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AR6">
+        <v>2.23E-2</v>
+      </c>
+      <c r="AS6">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="AT6">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="AU6">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="AV6">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="AW6">
+        <v>4.24E-2</v>
+      </c>
+      <c r="AX6">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AY6">
+        <v>2.92E-2</v>
+      </c>
+      <c r="AZ6">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="BA6">
+        <v>1.78E-2</v>
+      </c>
+      <c r="BB6">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="BC6">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="BD6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="BE6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="BF6">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="BG6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="BH6">
+        <v>8.6E-3</v>
+      </c>
+      <c r="BI6">
+        <v>8.6E-3</v>
+      </c>
+      <c r="BJ6">
+        <v>1.32E-2</v>
+      </c>
+      <c r="BK6">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="BL6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="BM6">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="BN6">
+        <v>8.6E-3</v>
+      </c>
+      <c r="BO6">
+        <v>2.23E-2</v>
+      </c>
+      <c r="BP6">
+        <v>2.23E-2</v>
+      </c>
+      <c r="BQ6">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="BR6">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="BS6">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="BT6">
+        <v>2.47E-2</v>
+      </c>
+      <c r="BU6">
+        <v>1.34E-2</v>
+      </c>
+      <c r="BV6">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="BW6">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="BX6">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="BY6">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="BZ6">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="CA6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="CB6">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="CC6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="CD6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="CE6">
+        <v>2.86E-2</v>
+      </c>
+      <c r="CF6">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="CG6">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="CH6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="CI6">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="CJ6">
+        <v>8.6E-3</v>
+      </c>
+      <c r="CK6">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="CL6">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="CM6">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="CN6">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="CO6">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="CP6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="CQ6">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="CR6">
+        <v>8.6E-3</v>
+      </c>
+      <c r="CS6">
+        <v>2.64E-2</v>
+      </c>
+      <c r="CT6">
+        <f t="shared" si="0"/>
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="CU6">
+        <f t="shared" si="1"/>
+        <v>0.69152000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.8605</v>
+      </c>
+      <c r="C7">
+        <v>1.8605</v>
+      </c>
+      <c r="D7">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.5776</v>
+      </c>
+      <c r="F7">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="J7">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.36380000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.42330000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="P7">
+        <v>1.972</v>
+      </c>
+      <c r="Q7">
+        <v>1.5108999999999999</v>
+      </c>
+      <c r="R7">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.7208</v>
+      </c>
+      <c r="T7">
+        <v>1.0963000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="V7">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.2089</v>
+      </c>
+      <c r="AB7">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="AF7">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="AG7">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="AH7">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.60489999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="AK7">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="AL7">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0.5373</v>
+      </c>
+      <c r="AO7">
+        <v>0.5373</v>
+      </c>
+      <c r="AP7">
+        <v>0.9476</v>
+      </c>
+      <c r="AQ7">
+        <v>2.0550999999999999</v>
+      </c>
+      <c r="AR7">
+        <v>1.9894000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>1.9894000000000001</v>
+      </c>
+      <c r="AT7">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="AU7">
+        <v>1.2890999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>1.2890999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="AX7">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="AY7">
+        <v>0.6371</v>
+      </c>
+      <c r="AZ7">
+        <v>1.3826000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>1.4477</v>
+      </c>
+      <c r="BB7">
+        <v>1.4477</v>
+      </c>
+      <c r="BC7">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="BD7">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="BE7">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="BF7">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="BG7">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="BH7">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="BI7">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="BJ7">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="BK7">
+        <v>0.1401</v>
+      </c>
+      <c r="BL7">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="BM7">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="BN7">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="BO7">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="BQ7">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="BR7">
+        <v>1.0188999999999999</v>
+      </c>
+      <c r="BS7">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="BT7">
+        <v>1.2438</v>
+      </c>
+      <c r="BU7">
+        <v>1.5072000000000001</v>
+      </c>
+      <c r="BV7">
+        <v>1.8066</v>
+      </c>
+      <c r="BW7">
+        <v>1.9137999999999999</v>
+      </c>
+      <c r="BX7">
+        <v>2.0606</v>
+      </c>
+      <c r="BY7">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="BZ7">
+        <v>1.5085</v>
+      </c>
+      <c r="CA7">
+        <v>1.2172000000000001</v>
+      </c>
+      <c r="CB7">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="CC7">
+        <v>0.71020000000000005</v>
+      </c>
+      <c r="CD7">
+        <v>1.1422000000000001</v>
+      </c>
+      <c r="CE7">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="CF7">
+        <v>0.4047</v>
+      </c>
+      <c r="CG7">
+        <v>0.28939999999999999</v>
+      </c>
+      <c r="CH7">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="CI7">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="CJ7">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="CK7">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="CL7">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="CM7">
+        <v>0.3024</v>
+      </c>
+      <c r="CN7">
+        <v>0.1085</v>
+      </c>
+      <c r="CO7">
+        <v>0.1326</v>
+      </c>
+      <c r="CP7">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="CQ7">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="CR7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="CS7">
+        <v>0.1066</v>
+      </c>
+      <c r="CT7">
+        <f t="shared" si="0"/>
+        <v>2.0606</v>
+      </c>
+      <c r="CU7">
+        <f t="shared" si="1"/>
+        <v>1.6484800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.3629</v>
+      </c>
+      <c r="C8">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.8054</v>
+      </c>
+      <c r="J8">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.43209999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M8">
+        <v>0.1822</v>
+      </c>
+      <c r="N8">
+        <v>0.1837</v>
+      </c>
+      <c r="O8">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.6321</v>
+      </c>
+      <c r="Q8">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="S8">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="T8">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="U8">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="V8">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="W8">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="X8">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="Y8">
+        <v>5.28E-2</v>
+      </c>
+      <c r="Z8">
+        <v>5.28E-2</v>
+      </c>
+      <c r="AA8">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="AB8">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="AC8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AD8">
+        <v>4.24E-2</v>
+      </c>
+      <c r="AE8">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="AF8">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AG8">
+        <v>4.24E-2</v>
+      </c>
+      <c r="AH8">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="AI8">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="AK8">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="AL8">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="AM8">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="AN8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AO8">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="AP8">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="AQ8">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="AR8">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="AS8">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="AT8">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="AU8">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AV8">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AW8">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AX8">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="AY8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AZ8">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="BA8">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="BB8">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="BC8">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="BD8">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="BE8">
+        <v>0.1502</v>
+      </c>
+      <c r="BF8">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="BG8">
+        <v>0.18</v>
+      </c>
+      <c r="BH8">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="BI8">
+        <v>0.1019</v>
+      </c>
+      <c r="BJ8">
+        <v>0.1173</v>
+      </c>
+      <c r="BK8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="BL8">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="BM8">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="BN8">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="BO8">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="BP8">
+        <v>0.6321</v>
+      </c>
+      <c r="BQ8">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="BR8">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="BS8">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="BT8">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="BU8">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="BV8">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="BW8">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="BX8">
+        <v>0.63880000000000003</v>
+      </c>
+      <c r="BY8">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="BZ8">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="CA8">
+        <v>0.39040000000000002</v>
+      </c>
+      <c r="CB8">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="CC8">
+        <v>0.2923</v>
+      </c>
+      <c r="CD8">
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="CF8">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="CG8">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="CH8">
+        <v>0.40310000000000001</v>
+      </c>
+      <c r="CI8">
+        <v>0.1666</v>
+      </c>
+      <c r="CJ8">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="CK8">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="CL8">
+        <v>0.1837</v>
+      </c>
+      <c r="CM8">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="CN8">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="CO8">
+        <v>5.21E-2</v>
+      </c>
+      <c r="CP8">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="CQ8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="CR8">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="CS8">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="CT8">
+        <f t="shared" si="0"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="CU8">
+        <f t="shared" si="1"/>
+        <v>0.66159999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.4226699999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.9665800000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.2379199999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.0104599999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.9304699999999998E-2</v>
+      </c>
+      <c r="H9">
+        <v>4.3261300000000003E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.0857699999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>4.8578700000000002E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.9310699999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.7676000000000001E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.4225100000000001E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.17597E-2</v>
+      </c>
+      <c r="O9">
+        <v>3.25762E-2</v>
+      </c>
+      <c r="P9">
+        <v>4.3419800000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.7598800000000001E-2</v>
+      </c>
+      <c r="R9">
+        <v>3.7557199999999999E-2</v>
+      </c>
+      <c r="S9">
+        <v>3.9788900000000002E-2</v>
+      </c>
+      <c r="T9">
+        <v>2.6370999999999999E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.5716800000000001E-2</v>
+      </c>
+      <c r="V9">
+        <v>4.53847E-2</v>
+      </c>
+      <c r="W9">
+        <v>3.4970399999999999E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.2351200000000002E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.325E-2</v>
+      </c>
+      <c r="Z9">
+        <v>3.7268700000000002E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.35275E-2</v>
+      </c>
+      <c r="AB9">
+        <v>5.1629800000000003E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.0723399999999999E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.1511599999999999E-2</v>
+      </c>
+      <c r="AE9">
+        <v>4.1349700000000003E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.4774600000000001E-2</v>
+      </c>
+      <c r="AG9">
+        <v>4.8901699999999999E-2</v>
+      </c>
+      <c r="AH9">
+        <v>2.7028400000000001E-2</v>
+      </c>
+      <c r="AI9">
+        <v>1.7672799999999999E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>2.3019700000000001E-2</v>
+      </c>
+      <c r="AK9">
+        <v>2.4128E-2</v>
+      </c>
+      <c r="AL9">
+        <v>3.1808500000000003E-2</v>
+      </c>
+      <c r="AM9">
+        <v>2.01981E-2</v>
+      </c>
+      <c r="AN9">
+        <v>3.7160699999999998E-2</v>
+      </c>
+      <c r="AO9">
+        <v>4.3476399999999998E-2</v>
+      </c>
+      <c r="AP9">
+        <v>3.6823599999999998E-2</v>
+      </c>
+      <c r="AQ9">
+        <v>4.4591899999999997E-2</v>
+      </c>
+      <c r="AR9">
+        <v>4.3170600000000003E-2</v>
+      </c>
+      <c r="AS9">
+        <v>1.9854500000000001E-2</v>
+      </c>
+      <c r="AT9">
+        <v>4.56067E-2</v>
+      </c>
+      <c r="AU9">
+        <v>2.6427599999999999E-2</v>
+      </c>
+      <c r="AV9">
+        <v>4.5825699999999997E-2</v>
+      </c>
+      <c r="AW9">
+        <v>4.0650100000000002E-2</v>
+      </c>
+      <c r="AX9">
+        <v>3.8802200000000002E-2</v>
+      </c>
+      <c r="AY9">
+        <v>2.55476E-2</v>
+      </c>
+      <c r="AZ9">
+        <v>1.9368E-2</v>
+      </c>
+      <c r="BA9">
+        <v>2.4855800000000001E-2</v>
+      </c>
+      <c r="BB9">
+        <v>4.0005899999999997E-2</v>
+      </c>
+      <c r="BC9">
+        <v>5.1026099999999998E-2</v>
+      </c>
+      <c r="BD9">
+        <v>2.28182E-2</v>
+      </c>
+      <c r="BE9">
+        <v>3.9368500000000001E-2</v>
+      </c>
+      <c r="BF9">
+        <v>5.1304500000000003E-2</v>
+      </c>
+      <c r="BG9">
+        <v>4.0550500000000003E-2</v>
+      </c>
+      <c r="BH9">
+        <v>4.4175100000000002E-2</v>
+      </c>
+      <c r="BI9">
+        <v>4.4696300000000001E-2</v>
+      </c>
+      <c r="BJ9">
+        <v>3.2124100000000003E-2</v>
+      </c>
+      <c r="BK9">
+        <v>4.5933099999999998E-2</v>
+      </c>
+      <c r="BL9">
+        <v>3.12833E-2</v>
+      </c>
+      <c r="BM9">
+        <v>4.8750599999999998E-2</v>
+      </c>
+      <c r="BN9">
+        <v>3.4098099999999999E-2</v>
+      </c>
+      <c r="BO9">
+        <v>4.2848600000000001E-2</v>
+      </c>
+      <c r="BP9">
+        <v>1.9349399999999999E-2</v>
+      </c>
+      <c r="BQ9">
+        <v>3.8628000000000003E-2</v>
+      </c>
+      <c r="BR9">
+        <v>2.5763999999999999E-2</v>
+      </c>
+      <c r="BS9">
+        <v>3.3179800000000002E-2</v>
+      </c>
+      <c r="BT9">
+        <v>5.1355199999999997E-2</v>
+      </c>
+      <c r="BU9">
+        <v>2.2172799999999999E-2</v>
+      </c>
+      <c r="BV9">
+        <v>4.9783500000000001E-2</v>
+      </c>
+      <c r="BW9">
+        <v>5.1260300000000002E-2</v>
+      </c>
+      <c r="BX9">
+        <v>4.8085000000000003E-2</v>
+      </c>
+      <c r="BY9">
+        <v>4.8603800000000003E-2</v>
+      </c>
+      <c r="BZ9">
+        <v>3.8838900000000003E-2</v>
+      </c>
+      <c r="CA9">
+        <v>4.4842300000000002E-2</v>
+      </c>
+      <c r="CB9">
+        <v>5.1889400000000002E-2</v>
+      </c>
+      <c r="CC9">
+        <v>1.9206000000000001E-2</v>
+      </c>
+      <c r="CD9">
+        <v>3.4163199999999998E-2</v>
+      </c>
+      <c r="CE9">
+        <v>5.0068599999999998E-2</v>
+      </c>
+      <c r="CF9">
+        <v>4.0840000000000001E-2</v>
+      </c>
+      <c r="CG9">
+        <v>3.3496100000000001E-2</v>
+      </c>
+      <c r="CH9">
+        <v>4.6198500000000003E-2</v>
+      </c>
+      <c r="CI9">
+        <v>3.9327899999999999E-2</v>
+      </c>
+      <c r="CJ9">
+        <v>4.59906E-2</v>
+      </c>
+      <c r="CK9">
+        <v>5.1416200000000002E-2</v>
+      </c>
+      <c r="CL9">
+        <v>2.90791E-2</v>
+      </c>
+      <c r="CM9">
+        <v>3.5172099999999998E-2</v>
+      </c>
+      <c r="CN9">
+        <v>4.6482099999999998E-2</v>
+      </c>
+      <c r="CO9">
+        <v>2.7249800000000001E-2</v>
+      </c>
+      <c r="CP9">
+        <v>5.2040500000000003E-2</v>
+      </c>
+      <c r="CQ9">
+        <v>2.0107400000000001E-2</v>
+      </c>
+      <c r="CR9">
+        <v>2.1182599999999999E-2</v>
+      </c>
+      <c r="CS9">
+        <v>2.2776399999999999E-2</v>
+      </c>
+      <c r="CT9">
+        <f>MAX(B9:CS9)</f>
+        <v>5.2040500000000003E-2</v>
+      </c>
+      <c r="CU9">
+        <f>0.8*CT9</f>
+        <v>4.1632400000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.7152600000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.7919300000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>3.6121300000000002E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.8794199999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.7973399999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.9828100000000001E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.5250999999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.2051999999999997E-2</v>
+      </c>
+      <c r="K10">
+        <v>4.15494E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.8646900000000001E-2</v>
+      </c>
+      <c r="M10">
+        <v>3.23757E-2</v>
+      </c>
+      <c r="N10">
+        <v>5.0221700000000001E-2</v>
+      </c>
+      <c r="O10">
+        <v>3.6550699999999998E-2</v>
+      </c>
+      <c r="P10">
+        <v>3.8906299999999998E-2</v>
+      </c>
+      <c r="Q10">
+        <v>3.2801200000000003E-2</v>
+      </c>
+      <c r="R10">
+        <v>3.5804999999999997E-2</v>
+      </c>
+      <c r="S10">
+        <v>5.0679700000000001E-2</v>
+      </c>
+      <c r="T10">
+        <v>5.0505300000000003E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.69561E-2</v>
+      </c>
+      <c r="V10">
+        <v>3.47832E-2</v>
+      </c>
+      <c r="W10">
+        <v>2.09336E-2</v>
+      </c>
+      <c r="X10">
+        <v>4.8486399999999999E-2</v>
+      </c>
+      <c r="Y10">
+        <v>4.5755799999999999E-2</v>
+      </c>
+      <c r="Z10">
+        <v>5.1019099999999998E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.8949699999999998E-2</v>
+      </c>
+      <c r="AB10">
+        <v>1.9323300000000002E-2</v>
+      </c>
+      <c r="AC10">
+        <v>4.6917800000000003E-2</v>
+      </c>
+      <c r="AD10">
+        <v>3.7804900000000002E-2</v>
+      </c>
+      <c r="AE10">
+        <v>4.5056899999999997E-2</v>
+      </c>
+      <c r="AF10">
+        <v>2.7989900000000002E-2</v>
+      </c>
+      <c r="AG10">
+        <v>1.7916499999999998E-2</v>
+      </c>
+      <c r="AH10">
+        <v>3.4972000000000003E-2</v>
+      </c>
+      <c r="AI10">
+        <v>3.1494599999999998E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>4.5260799999999997E-2</v>
+      </c>
+      <c r="AK10">
+        <v>3.3645000000000001E-2</v>
+      </c>
+      <c r="AL10">
+        <v>3.0804000000000002E-2</v>
+      </c>
+      <c r="AM10">
+        <v>2.4159699999999999E-2</v>
+      </c>
+      <c r="AN10">
+        <v>4.2965299999999998E-2</v>
+      </c>
+      <c r="AO10">
+        <v>3.17676E-2</v>
+      </c>
+      <c r="AP10">
+        <v>3.95065E-2</v>
+      </c>
+      <c r="AQ10">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AR10">
+        <v>2.2601099999999999E-2</v>
+      </c>
+      <c r="AS10">
+        <v>4.2025699999999999E-2</v>
+      </c>
+      <c r="AT10">
+        <v>4.68475E-2</v>
+      </c>
+      <c r="AU10">
+        <v>4.2442000000000001E-2</v>
+      </c>
+      <c r="AV10">
+        <v>4.2324899999999999E-2</v>
+      </c>
+      <c r="AW10">
+        <v>2.06147E-2</v>
+      </c>
+      <c r="AX10">
+        <v>2.6536400000000002E-2</v>
+      </c>
+      <c r="AY10">
+        <v>3.3401599999999997E-2</v>
+      </c>
+      <c r="AZ10">
+        <v>4.9938900000000001E-2</v>
+      </c>
+      <c r="BA10">
+        <v>2.1732499999999998E-2</v>
+      </c>
+      <c r="BB10">
+        <v>2.03663E-2</v>
+      </c>
+      <c r="BC10">
+        <v>4.0352399999999997E-2</v>
+      </c>
+      <c r="BD10">
+        <v>3.6846400000000001E-2</v>
+      </c>
+      <c r="BE10">
+        <v>3.5966999999999999E-2</v>
+      </c>
+      <c r="BF10">
+        <v>4.8194800000000003E-2</v>
+      </c>
+      <c r="BG10">
+        <v>3.9728300000000001E-2</v>
+      </c>
+      <c r="BH10">
+        <v>5.02914E-2</v>
+      </c>
+      <c r="BI10">
+        <v>2.5051899999999998E-2</v>
+      </c>
+      <c r="BJ10">
+        <v>2.7823199999999999E-2</v>
+      </c>
+      <c r="BK10">
+        <v>3.7113199999999999E-2</v>
+      </c>
+      <c r="BL10">
+        <v>3.7577699999999999E-2</v>
+      </c>
+      <c r="BM10">
+        <v>1.8027700000000001E-2</v>
+      </c>
+      <c r="BN10">
+        <v>3.3148999999999998E-2</v>
+      </c>
+      <c r="BO10">
+        <v>2.22527E-2</v>
+      </c>
+      <c r="BP10">
+        <v>1.8340200000000001E-2</v>
+      </c>
+      <c r="BQ10">
+        <v>4.08274E-2</v>
+      </c>
+      <c r="BR10">
+        <v>4.27318E-2</v>
+      </c>
+      <c r="BS10">
+        <v>3.9351700000000003E-2</v>
+      </c>
+      <c r="BT10">
+        <v>4.3167299999999999E-2</v>
+      </c>
+      <c r="BU10">
+        <v>3.4122899999999998E-2</v>
+      </c>
+      <c r="BV10">
+        <v>4.60478E-2</v>
+      </c>
+      <c r="BW10">
+        <v>2.9398400000000002E-2</v>
+      </c>
+      <c r="BX10">
+        <v>3.47248E-2</v>
+      </c>
+      <c r="BY10">
+        <v>3.6968399999999998E-2</v>
+      </c>
+      <c r="BZ10">
+        <v>2.9091100000000002E-2</v>
+      </c>
+      <c r="CA10">
+        <v>2.2038599999999998E-2</v>
+      </c>
+      <c r="CB10">
+        <v>3.67742E-2</v>
+      </c>
+      <c r="CC10">
+        <v>2.3499699999999998E-2</v>
+      </c>
+      <c r="CD10">
+        <v>4.06836E-2</v>
+      </c>
+      <c r="CE10">
+        <v>3.7952300000000001E-2</v>
+      </c>
+      <c r="CF10">
+        <v>3.3530200000000003E-2</v>
+      </c>
+      <c r="CG10">
+        <v>4.2506000000000002E-2</v>
+      </c>
+      <c r="CH10">
+        <v>5.1188999999999998E-2</v>
+      </c>
+      <c r="CI10">
+        <v>3.3332300000000002E-2</v>
+      </c>
+      <c r="CJ10">
+        <v>3.2417799999999997E-2</v>
+      </c>
+      <c r="CK10">
+        <v>4.2941399999999998E-2</v>
+      </c>
+      <c r="CL10">
+        <v>4.9280499999999998E-2</v>
+      </c>
+      <c r="CM10">
+        <v>3.0003499999999999E-2</v>
+      </c>
+      <c r="CN10">
+        <v>4.3954300000000002E-2</v>
+      </c>
+      <c r="CO10">
+        <v>2.6331E-2</v>
+      </c>
+      <c r="CP10">
+        <v>2.3860800000000001E-2</v>
+      </c>
+      <c r="CQ10">
+        <v>4.4454599999999997E-2</v>
+      </c>
+      <c r="CR10">
+        <v>3.6622799999999997E-2</v>
+      </c>
+      <c r="CS10">
+        <v>2.52771E-2</v>
+      </c>
+      <c r="CT10">
+        <f>MAX(B10:CS10)</f>
+        <v>5.1188999999999998E-2</v>
+      </c>
+      <c r="CU10">
+        <f>0.8*CT10</f>
+        <v>4.09512E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.08</v>
+      </c>
+      <c r="C11">
+        <v>4.2089300000000003E-2</v>
+      </c>
+      <c r="D11">
+        <v>7.5601799999999997E-2</v>
+      </c>
+      <c r="E11">
+        <v>6.6925999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.8723099999999994E-2</v>
+      </c>
+      <c r="G11">
+        <v>4.3423799999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>6.9323800000000005E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.11672109999999999</v>
+      </c>
+      <c r="J11">
+        <v>6.06475E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.1046726</v>
+      </c>
+      <c r="L11">
+        <v>0.1001133</v>
+      </c>
+      <c r="M11">
+        <v>0.1067965</v>
+      </c>
+      <c r="N11">
+        <v>5.5116100000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>8.4126800000000002E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.11931310000000001</v>
+      </c>
+      <c r="Q11">
+        <v>5.2270999999999998E-2</v>
+      </c>
+      <c r="R11">
+        <v>4.8760600000000001E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.11510720000000001</v>
+      </c>
+      <c r="T11">
+        <v>4.4153400000000002E-2</v>
+      </c>
+      <c r="U11">
+        <v>9.3329200000000001E-2</v>
+      </c>
+      <c r="V11">
+        <v>4.2198100000000002E-2</v>
+      </c>
+      <c r="W11">
+        <v>8.6174799999999996E-2</v>
+      </c>
+      <c r="X11">
+        <v>9.0547199999999994E-2</v>
+      </c>
+      <c r="Y11">
+        <v>0.1128622</v>
+      </c>
+      <c r="Z11">
+        <v>8.6672100000000002E-2</v>
+      </c>
+      <c r="AA11">
+        <v>9.5433799999999999E-2</v>
+      </c>
+      <c r="AB11">
+        <v>9.0410099999999993E-2</v>
+      </c>
+      <c r="AC11">
+        <v>6.1135700000000001E-2</v>
+      </c>
+      <c r="AD11">
+        <v>5.2719200000000001E-2</v>
+      </c>
+      <c r="AE11">
+        <v>5.8836300000000001E-2</v>
+      </c>
+      <c r="AF11">
+        <v>5.3057699999999999E-2</v>
+      </c>
+      <c r="AG11">
+        <v>4.9437099999999998E-2</v>
+      </c>
+      <c r="AH11">
+        <v>7.2452199999999994E-2</v>
+      </c>
+      <c r="AI11">
+        <v>6.3871700000000003E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>7.4988100000000002E-2</v>
+      </c>
+      <c r="AK11">
+        <v>0.11926589999999999</v>
+      </c>
+      <c r="AL11">
+        <v>0.1041289</v>
+      </c>
+      <c r="AM11">
+        <v>0.1060384</v>
+      </c>
+      <c r="AN11">
+        <v>0.10093290000000001</v>
+      </c>
+      <c r="AO11">
+        <v>0.1069923</v>
+      </c>
+      <c r="AP11">
+        <v>6.1618399999999997E-2</v>
+      </c>
+      <c r="AQ11">
+        <v>0.1054355</v>
+      </c>
+      <c r="AR11">
+        <v>9.4174300000000002E-2</v>
+      </c>
+      <c r="AS11">
+        <v>4.4352700000000002E-2</v>
+      </c>
+      <c r="AT11">
+        <v>5.38714E-2</v>
+      </c>
+      <c r="AU11">
+        <v>4.6770300000000001E-2</v>
+      </c>
+      <c r="AV11">
+        <v>8.2492200000000002E-2</v>
+      </c>
+      <c r="AW11">
+        <v>4.7865900000000003E-2</v>
+      </c>
+      <c r="AX11">
+        <v>5.3902600000000002E-2</v>
+      </c>
+      <c r="AY11">
+        <v>4.1693000000000001E-2</v>
+      </c>
+      <c r="AZ11">
+        <v>0.10402550000000001</v>
+      </c>
+      <c r="BA11">
+        <v>4.7618599999999997E-2</v>
+      </c>
+      <c r="BB11">
+        <v>5.4854600000000003E-2</v>
+      </c>
+      <c r="BC11">
+        <v>9.4941700000000004E-2</v>
+      </c>
+      <c r="BD11">
+        <v>6.9734699999999997E-2</v>
+      </c>
+      <c r="BE11">
+        <v>4.3356100000000002E-2</v>
+      </c>
+      <c r="BF11">
+        <v>6.2341500000000001E-2</v>
+      </c>
+      <c r="BG11">
+        <v>5.01109E-2</v>
+      </c>
+      <c r="BH11">
+        <v>5.7053100000000002E-2</v>
+      </c>
+      <c r="BI11">
+        <v>6.9257799999999994E-2</v>
+      </c>
+      <c r="BJ11">
+        <v>7.4834800000000007E-2</v>
+      </c>
+      <c r="BK11">
+        <v>5.3667100000000002E-2</v>
+      </c>
+      <c r="BL11">
+        <v>5.3724300000000003E-2</v>
+      </c>
+      <c r="BM11">
+        <v>4.2839500000000003E-2</v>
+      </c>
+      <c r="BN11">
+        <v>6.3200500000000007E-2</v>
+      </c>
+      <c r="BO11">
+        <v>6.1450900000000003E-2</v>
+      </c>
+      <c r="BP11">
+        <v>0.1016439</v>
+      </c>
+      <c r="BQ11">
+        <v>7.60522E-2</v>
+      </c>
+      <c r="BR11">
+        <v>7.2058899999999995E-2</v>
+      </c>
+      <c r="BS11">
+        <v>8.4939600000000004E-2</v>
+      </c>
+      <c r="BT11">
+        <v>0.10704320000000001</v>
+      </c>
+      <c r="BU11">
+        <v>6.7656300000000003E-2</v>
+      </c>
+      <c r="BV11">
+        <v>4.9585799999999999E-2</v>
+      </c>
+      <c r="BW11">
+        <v>4.2125299999999997E-2</v>
+      </c>
+      <c r="BX11">
+        <v>7.5399300000000002E-2</v>
+      </c>
+      <c r="BY11">
+        <v>5.5736500000000001E-2</v>
+      </c>
+      <c r="BZ11">
+        <v>8.8947999999999999E-2</v>
+      </c>
+      <c r="CA11">
+        <v>6.6210199999999997E-2</v>
+      </c>
+      <c r="CB11">
+        <v>7.9038999999999998E-2</v>
+      </c>
+      <c r="CC11">
+        <v>0.1128387</v>
+      </c>
+      <c r="CD11">
+        <v>8.3961400000000005E-2</v>
+      </c>
+      <c r="CE11">
+        <v>8.1823499999999993E-2</v>
+      </c>
+      <c r="CF11">
+        <v>7.72568E-2</v>
+      </c>
+      <c r="CG11">
+        <v>8.8245100000000007E-2</v>
+      </c>
+      <c r="CH11">
+        <v>6.0438600000000002E-2</v>
+      </c>
+      <c r="CI11">
+        <v>0.10926710000000001</v>
+      </c>
+      <c r="CJ11">
+        <v>4.6822299999999997E-2</v>
+      </c>
+      <c r="CK11">
+        <v>8.0057199999999995E-2</v>
+      </c>
+      <c r="CL11">
+        <v>7.0863200000000001E-2</v>
+      </c>
+      <c r="CM11">
+        <v>6.1201400000000003E-2</v>
+      </c>
+      <c r="CN11">
+        <v>9.5101500000000005E-2</v>
+      </c>
+      <c r="CO11">
+        <v>0.1064749</v>
+      </c>
+      <c r="CP11">
+        <v>8.2199300000000003E-2</v>
+      </c>
+      <c r="CQ11">
+        <v>0.11411830000000001</v>
+      </c>
+      <c r="CR11">
+        <v>4.8023099999999999E-2</v>
+      </c>
+      <c r="CS11">
+        <v>0.118968</v>
+      </c>
+      <c r="CT11">
+        <f>MAX(B11:CS11)</f>
+        <v>0.11931310000000001</v>
+      </c>
+      <c r="CU11">
+        <f>0.8*CT11</f>
+        <v>9.5450480000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>ROUND(B1/$CU1*$CU12,3)</f>
+        <v>0.19</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:BN12" si="2">ROUND(C1/$CU1*$CU12,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.254</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>15.875</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="2"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="2"/>
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="2"/>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="2"/>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="2"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="2"/>
+        <v>1.373</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="2"/>
+        <v>14.429</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="2"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" si="2"/>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="BE12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="2"/>
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="2"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <f t="shared" ref="BO12:CS12" si="3">ROUND(BO1/$CU1*$CU12,3)</f>
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="3"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="BR12">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="BS12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <f t="shared" si="3"/>
+        <v>0.433</v>
+      </c>
+      <c r="CA12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <f t="shared" si="3"/>
+        <v>15.242000000000001</v>
+      </c>
+      <c r="CC12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <f t="shared" si="3"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="CG12">
+        <f t="shared" si="3"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="CH12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <f t="shared" si="3"/>
+        <v>0.876</v>
+      </c>
+      <c r="CN12">
+        <f t="shared" si="3"/>
+        <v>0.316</v>
+      </c>
+      <c r="CO12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:BM13" si="4">ROUND(B2/$CU2*$CU13,3)</f>
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>7.85</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>12.04</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>1.458</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>1.458</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1.079</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>1.129</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>1.079</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>1.079</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>6.4909999999999997</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>0.74</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>0.878</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>0.878</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="4"/>
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="4"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="4"/>
+        <v>0.104</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="4"/>
+        <v>0.46</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="4"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="4"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="4"/>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="4"/>
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="4"/>
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="4"/>
+        <v>2.9489999999999998</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="4"/>
+        <v>1.99</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="4"/>
+        <v>1.776</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="4"/>
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="4"/>
+        <v>3.5579999999999998</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="4"/>
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="4"/>
+        <v>1.458</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="4"/>
+        <v>1.486</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="4"/>
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="4"/>
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="4"/>
+        <v>2.056</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="4"/>
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="4"/>
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="4"/>
+        <v>1.865</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="4"/>
+        <v>1.468</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="4"/>
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="4"/>
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="4"/>
+        <v>1.821</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="4"/>
+        <v>6.3159999999999998</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="4"/>
+        <v>4.42</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="4"/>
+        <v>1.468</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="4"/>
+        <v>1.925</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="4"/>
+        <v>12.363</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" ref="BN13:CS13" si="5">ROUND(BN2/$CU2*$CU13,3)</f>
+        <v>22.46</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="5"/>
+        <v>14.791</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="5"/>
+        <v>14.791</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="5"/>
+        <v>23.75</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="5"/>
+        <v>17.927</v>
+      </c>
+      <c r="BS13">
+        <f t="shared" si="5"/>
+        <v>23.431999999999999</v>
+      </c>
+      <c r="BT13">
+        <f t="shared" si="5"/>
+        <v>11.25</v>
+      </c>
+      <c r="BU13">
+        <f t="shared" si="5"/>
+        <v>11.25</v>
+      </c>
+      <c r="BV13">
+        <f t="shared" si="5"/>
+        <v>12.718999999999999</v>
+      </c>
+      <c r="BW13">
+        <f t="shared" si="5"/>
+        <v>16.754999999999999</v>
+      </c>
+      <c r="BX13">
+        <f t="shared" si="5"/>
+        <v>16.754999999999999</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="5"/>
+        <v>9.8460000000000001</v>
+      </c>
+      <c r="BZ13">
+        <f t="shared" si="5"/>
+        <v>12.773999999999999</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="5"/>
+        <v>17.379000000000001</v>
+      </c>
+      <c r="CB13">
+        <f t="shared" si="5"/>
+        <v>11.951000000000001</v>
+      </c>
+      <c r="CC13">
+        <f t="shared" si="5"/>
+        <v>15.843</v>
+      </c>
+      <c r="CD13">
+        <f t="shared" si="5"/>
+        <v>9.375</v>
+      </c>
+      <c r="CE13">
+        <f t="shared" si="5"/>
+        <v>10.175000000000001</v>
+      </c>
+      <c r="CF13">
+        <f t="shared" si="5"/>
+        <v>9.8030000000000008</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="5"/>
+        <v>13.069000000000001</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="5"/>
+        <v>2.972</v>
+      </c>
+      <c r="CI13">
+        <f t="shared" si="5"/>
+        <v>10.087999999999999</v>
+      </c>
+      <c r="CJ13">
+        <f t="shared" si="5"/>
+        <v>2.774</v>
+      </c>
+      <c r="CK13">
+        <f t="shared" si="5"/>
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="CL13">
+        <f t="shared" si="5"/>
+        <v>9.2159999999999993</v>
+      </c>
+      <c r="CM13">
+        <f t="shared" si="5"/>
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="CN13">
+        <f t="shared" si="5"/>
+        <v>2.8290000000000002</v>
+      </c>
+      <c r="CO13">
+        <f t="shared" si="5"/>
+        <v>10.843999999999999</v>
+      </c>
+      <c r="CP13">
+        <f t="shared" si="5"/>
+        <v>6.0309999999999997</v>
+      </c>
+      <c r="CQ13">
+        <f t="shared" si="5"/>
+        <v>7.6040000000000001</v>
+      </c>
+      <c r="CR13">
+        <f t="shared" si="5"/>
+        <v>7.6040000000000001</v>
+      </c>
+      <c r="CS13">
+        <f t="shared" si="5"/>
+        <v>8.6129999999999995</v>
+      </c>
+      <c r="CU13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:BM14" si="6">ROUND(B3/$CU3*$CU14,3)</f>
+        <v>-0.90500000000000003</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="6"/>
+        <v>-0.81100000000000005</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>-1.895</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>-0.83899999999999997</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>-1.345</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>-0.77900000000000003</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>-0.82099999999999995</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>-0.82599999999999996</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>-0.75600000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>-0.81699999999999995</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>-0.73399999999999999</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>-0.73599999999999999</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>-0.77500000000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>-0.83</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>-1.5389999999999999</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>-0.85</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>-0.79400000000000004</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>-0.85699999999999998</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>-1.1910000000000001</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>-1.268</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>-1.2330000000000001</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>-1.2330000000000001</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>-1.167</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="6"/>
+        <v>-1.173</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="6"/>
+        <v>-1.2110000000000001</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="6"/>
+        <v>-1.25</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="6"/>
+        <v>-1.1930000000000001</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="6"/>
+        <v>-1.165</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="6"/>
+        <v>-1.6990000000000001</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="6"/>
+        <v>-1.2270000000000001</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="6"/>
+        <v>-1.2270000000000001</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="6"/>
+        <v>-1.1739999999999999</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="6"/>
+        <v>-1.163</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="6"/>
+        <v>-1.43</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="6"/>
+        <v>-2.077</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="6"/>
+        <v>-2.6509999999999998</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="6"/>
+        <v>-2.06</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="6"/>
+        <v>-4.1950000000000003</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="6"/>
+        <v>-4.42</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="6"/>
+        <v>-4.8079999999999998</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="6"/>
+        <v>-4.819</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="6"/>
+        <v>-4.819</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="6"/>
+        <v>-4.875</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="6"/>
+        <v>-2.1680000000000001</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="6"/>
+        <v>-1.8859999999999999</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="6"/>
+        <v>-1.228</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="6"/>
+        <v>-1.212</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="6"/>
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="6"/>
+        <v>-1.149</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="6"/>
+        <v>-1.2</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="6"/>
+        <v>-1.8520000000000001</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="6"/>
+        <v>-1.1950000000000001</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="6"/>
+        <v>-1.1539999999999999</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="6"/>
+        <v>-1.554</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="6"/>
+        <v>-1.399</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="6"/>
+        <v>-1.165</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="6"/>
+        <v>-3.15</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="6"/>
+        <v>-3.3439999999999999</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="6"/>
+        <v>-1.5940000000000001</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="6"/>
+        <v>-1.857</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" si="6"/>
+        <v>-2.0859999999999999</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="6"/>
+        <v>-2.746</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="6"/>
+        <v>-1.335</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" ref="BN14:CS14" si="7">ROUND(BN3/$CU3*$CU14,3)</f>
+        <v>-1.3520000000000001</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" si="7"/>
+        <v>-1.909</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="7"/>
+        <v>-1.909</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="7"/>
+        <v>-2.0939999999999999</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" si="7"/>
+        <v>-2.1040000000000001</v>
+      </c>
+      <c r="BS14">
+        <f t="shared" si="7"/>
+        <v>-2.1469999999999998</v>
+      </c>
+      <c r="BT14">
+        <f t="shared" si="7"/>
+        <v>-2.13</v>
+      </c>
+      <c r="BU14">
+        <f t="shared" si="7"/>
+        <v>-2.13</v>
+      </c>
+      <c r="BV14">
+        <f t="shared" si="7"/>
+        <v>-2.0880000000000001</v>
+      </c>
+      <c r="BW14">
+        <f t="shared" si="7"/>
+        <v>-2.1040000000000001</v>
+      </c>
+      <c r="BX14">
+        <f t="shared" si="7"/>
+        <v>-2.1040000000000001</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="7"/>
+        <v>-2.1469999999999998</v>
+      </c>
+      <c r="BZ14">
+        <f t="shared" si="7"/>
+        <v>-2.7730000000000001</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" si="7"/>
+        <v>-2.6920000000000002</v>
+      </c>
+      <c r="CB14">
+        <f t="shared" si="7"/>
+        <v>-2.5760000000000001</v>
+      </c>
+      <c r="CC14">
+        <f t="shared" si="7"/>
+        <v>-1.5549999999999999</v>
+      </c>
+      <c r="CD14">
+        <f t="shared" si="7"/>
+        <v>-2.1440000000000001</v>
+      </c>
+      <c r="CE14">
+        <f t="shared" si="7"/>
+        <v>-2.137</v>
+      </c>
+      <c r="CF14">
+        <f t="shared" si="7"/>
+        <v>-2.6509999999999998</v>
+      </c>
+      <c r="CG14">
+        <f t="shared" si="7"/>
+        <v>-2.1829999999999998</v>
+      </c>
+      <c r="CH14">
+        <f t="shared" si="7"/>
+        <v>-2.1789999999999998</v>
+      </c>
+      <c r="CI14">
+        <f t="shared" si="7"/>
+        <v>-2.113</v>
+      </c>
+      <c r="CJ14">
+        <f t="shared" si="7"/>
+        <v>-2.0529999999999999</v>
+      </c>
+      <c r="CK14">
+        <f t="shared" si="7"/>
+        <v>-2.052</v>
+      </c>
+      <c r="CL14">
+        <f t="shared" si="7"/>
+        <v>-2.0470000000000002</v>
+      </c>
+      <c r="CM14">
+        <f t="shared" si="7"/>
+        <v>-2.9830000000000001</v>
+      </c>
+      <c r="CN14">
+        <f t="shared" si="7"/>
+        <v>-1.9850000000000001</v>
+      </c>
+      <c r="CO14">
+        <f t="shared" si="7"/>
+        <v>-2.0259999999999998</v>
+      </c>
+      <c r="CP14">
+        <f t="shared" si="7"/>
+        <v>-2.0310000000000001</v>
+      </c>
+      <c r="CQ14">
+        <f t="shared" si="7"/>
+        <v>-1.972</v>
+      </c>
+      <c r="CR14">
+        <f t="shared" si="7"/>
+        <v>-1.972</v>
+      </c>
+      <c r="CS14">
+        <f t="shared" si="7"/>
+        <v>-2.069</v>
+      </c>
+      <c r="CU14">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:BM15" si="8">ROUND(B4/$CU4*$CU15,3)</f>
+        <v>0.878</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="8"/>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="8"/>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>0.77</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>0.77</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>0.49</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>0.49</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>0.317</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>0.32</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>0.314</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>0.32</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="8"/>
+        <v>0.317</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="8"/>
+        <v>0.317</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="8"/>
+        <v>0.317</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>0.314</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>0.32</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="8"/>
+        <v>0.309</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="8"/>
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="8"/>
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="8"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="8"/>
+        <v>0.314</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="8"/>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="8"/>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="8"/>
+        <v>0.318</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="8"/>
+        <v>0.316</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="8"/>
+        <v>0.314</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="8"/>
+        <v>0.311</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="8"/>
+        <v>0.316</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="8"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="8"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="8"/>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="8"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="8"/>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="8"/>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="8"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="8"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="8"/>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="8"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="8"/>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="8"/>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="8"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="8"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="8"/>
+        <v>0.253</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="8"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="8"/>
+        <v>0.307</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="8"/>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="8"/>
+        <v>0.79</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="8"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="8"/>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="8"/>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="8"/>
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="8"/>
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" ref="BN15:CS15" si="9">ROUND(BN4/$CU4*$CU15,3)</f>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="9"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="9"/>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="9"/>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" si="9"/>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="BS15">
+        <f t="shared" si="9"/>
+        <v>0.501</v>
+      </c>
+      <c r="BT15">
+        <f t="shared" si="9"/>
+        <v>0.495</v>
+      </c>
+      <c r="BU15">
+        <f t="shared" si="9"/>
+        <v>0.32</v>
+      </c>
+      <c r="BV15">
+        <f t="shared" si="9"/>
+        <v>0.32</v>
+      </c>
+      <c r="BW15">
+        <f t="shared" si="9"/>
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" si="9"/>
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="9"/>
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="BZ15">
+        <f t="shared" si="9"/>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="9"/>
+        <v>0.245</v>
+      </c>
+      <c r="CB15">
+        <f t="shared" si="9"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="CC15">
+        <f t="shared" si="9"/>
+        <v>0.245</v>
+      </c>
+      <c r="CD15">
+        <f t="shared" si="9"/>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="CE15">
+        <f t="shared" si="9"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="CF15">
+        <f t="shared" si="9"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" si="9"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="CH15">
+        <f t="shared" si="9"/>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="CI15">
+        <f t="shared" si="9"/>
+        <v>0.439</v>
+      </c>
+      <c r="CJ15">
+        <f t="shared" si="9"/>
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="CK15">
+        <f t="shared" si="9"/>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="CL15">
+        <f t="shared" si="9"/>
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="CM15">
+        <f t="shared" si="9"/>
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="CN15">
+        <f t="shared" si="9"/>
+        <v>1.633</v>
+      </c>
+      <c r="CO15">
+        <f t="shared" si="9"/>
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="CP15">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="CQ15">
+        <f t="shared" si="9"/>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="CR15">
+        <f t="shared" si="9"/>
+        <v>1.327</v>
+      </c>
+      <c r="CS15">
+        <f t="shared" si="9"/>
+        <v>1.327</v>
+      </c>
+      <c r="CU15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:BM16" si="10">ROUND(B5/$CU5*$CU16,3)</f>
+        <v>0.27</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="10"/>
+        <v>0.255</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="10"/>
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="10"/>
+        <v>0.96</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="10"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="10"/>
+        <v>0.27</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>0.249</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="10"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>0.249</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="10"/>
+        <v>0.27</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="10"/>
+        <v>0.27</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="10"/>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="10"/>
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="10"/>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="10"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="10"/>
+        <v>0.249</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="10"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="10"/>
+        <v>0.249</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="10"/>
+        <v>0.443</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="10"/>
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="10"/>
+        <v>4.4240000000000004</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="10"/>
+        <v>9.375</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="10"/>
+        <v>8.6549999999999994</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="10"/>
+        <v>8.0540000000000003</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="10"/>
+        <v>8.1790000000000003</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="10"/>
+        <v>8.0410000000000004</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="10"/>
+        <v>7.7779999999999996</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="10"/>
+        <v>7.1070000000000002</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="10"/>
+        <v>5.7519999999999998</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="10"/>
+        <v>5.31</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="10"/>
+        <v>5.6479999999999997</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="10"/>
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="10"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="10"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="10"/>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="10"/>
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="10"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="10"/>
+        <v>0.186</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="10"/>
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="10"/>
+        <v>0.186</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="10"/>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="10"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="10"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="10"/>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" ref="BN16:CS16" si="11">ROUND(BN5/$CU5*$CU16,3)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="BO16">
+        <f t="shared" si="11"/>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="BP16">
+        <f t="shared" si="11"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="11"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="BR16">
+        <f t="shared" si="11"/>
+        <v>0.255</v>
+      </c>
+      <c r="BS16">
+        <f t="shared" si="11"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="BT16">
+        <f t="shared" si="11"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="BU16">
+        <f t="shared" si="11"/>
+        <v>0.871</v>
+      </c>
+      <c r="BV16">
+        <f t="shared" si="11"/>
+        <v>0.871</v>
+      </c>
+      <c r="BW16">
+        <f t="shared" si="11"/>
+        <v>0.18</v>
+      </c>
+      <c r="BX16">
+        <f t="shared" si="11"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="BY16">
+        <f t="shared" si="11"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="BZ16">
+        <f t="shared" si="11"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="CA16">
+        <f t="shared" si="11"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="CB16">
+        <f t="shared" si="11"/>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="CC16">
+        <f t="shared" si="11"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="CD16">
+        <f t="shared" si="11"/>
+        <v>0.629</v>
+      </c>
+      <c r="CE16">
+        <f t="shared" si="11"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="CF16">
+        <f t="shared" si="11"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="CG16">
+        <f t="shared" si="11"/>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="CH16">
+        <f t="shared" si="11"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="CI16">
+        <f t="shared" si="11"/>
+        <v>0.18</v>
+      </c>
+      <c r="CJ16">
+        <f t="shared" si="11"/>
+        <v>0.16</v>
+      </c>
+      <c r="CK16">
+        <f t="shared" si="11"/>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="CL16">
+        <f t="shared" si="11"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="CM16">
+        <f t="shared" si="11"/>
+        <v>4.6529999999999996</v>
+      </c>
+      <c r="CN16">
+        <f t="shared" si="11"/>
+        <v>7.9020000000000001</v>
+      </c>
+      <c r="CO16">
+        <f t="shared" si="11"/>
+        <v>8.5239999999999991</v>
+      </c>
+      <c r="CP16">
+        <f t="shared" si="11"/>
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="CQ16">
+        <f t="shared" si="11"/>
+        <v>9.1809999999999992</v>
+      </c>
+      <c r="CR16">
+        <f t="shared" si="11"/>
+        <v>9.1809999999999992</v>
+      </c>
+      <c r="CS16">
+        <f t="shared" si="11"/>
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="CU16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:BM17" si="12">ROUND(B6/$CU6*$CU17,3)</f>
+        <v>2.141</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="12"/>
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="12"/>
+        <v>2.093</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="12"/>
+        <v>11.983000000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="12"/>
+        <v>20.75</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="12"/>
+        <v>2.427</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="12"/>
+        <v>14.185</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="12"/>
+        <v>3.0289999999999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>8.7469999999999999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>3.512</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="12"/>
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="12"/>
+        <v>3.097</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="12"/>
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="12"/>
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="12"/>
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="12"/>
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="12"/>
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="12"/>
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="12"/>
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="12"/>
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="12"/>
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="12"/>
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="12"/>
+        <v>3.044</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="12"/>
+        <v>2.5489999999999999</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="12"/>
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="12"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="12"/>
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="12"/>
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="12"/>
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="12"/>
+        <v>2.8660000000000001</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="12"/>
+        <v>2.919</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="12"/>
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="12"/>
+        <v>3.044</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="12"/>
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="12"/>
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="12"/>
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="12"/>
+        <v>0.749</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="12"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="12"/>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="12"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="12"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="12"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="12"/>
+        <v>1.018</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="12"/>
+        <v>0.749</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="12"/>
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="12"/>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="12"/>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="12"/>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="12"/>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="12"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" si="12"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="12"/>
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="12"/>
+        <v>0.307</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="12"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="12"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="12"/>
+        <v>0.317</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" si="12"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" si="12"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="12"/>
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" ref="BN17:CS17" si="13">ROUND(BN6/$CU6*$CU17,3)</f>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="BO17">
+        <f t="shared" si="13"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="BP17">
+        <f t="shared" si="13"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="BQ17">
+        <f t="shared" si="13"/>
+        <v>0.79</v>
+      </c>
+      <c r="BR17">
+        <f t="shared" si="13"/>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="BS17">
+        <f t="shared" si="13"/>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="BT17">
+        <f t="shared" si="13"/>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="BU17">
+        <f t="shared" si="13"/>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="BV17">
+        <f t="shared" si="13"/>
+        <v>0.214</v>
+      </c>
+      <c r="BW17">
+        <f t="shared" si="13"/>
+        <v>0.67</v>
+      </c>
+      <c r="BX17">
+        <f t="shared" si="13"/>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="BY17">
+        <f t="shared" si="13"/>
+        <v>0.214</v>
+      </c>
+      <c r="BZ17">
+        <f t="shared" si="13"/>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="CA17">
+        <f t="shared" si="13"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="CB17">
+        <f t="shared" si="13"/>
+        <v>0.214</v>
+      </c>
+      <c r="CC17">
+        <f t="shared" si="13"/>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="CD17">
+        <f t="shared" si="13"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="CE17">
+        <f t="shared" si="13"/>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="CF17">
+        <f t="shared" si="13"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="CG17">
+        <f t="shared" si="13"/>
+        <v>0.214</v>
+      </c>
+      <c r="CH17">
+        <f t="shared" si="13"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="CI17">
+        <f t="shared" si="13"/>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="CJ17">
+        <f t="shared" si="13"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="CK17">
+        <f t="shared" si="13"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="CL17">
+        <f t="shared" si="13"/>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="CM17">
+        <f t="shared" si="13"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="CN17">
+        <f t="shared" si="13"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="CO17">
+        <f t="shared" si="13"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="CP17">
+        <f t="shared" si="13"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="CQ17">
+        <f t="shared" si="13"/>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="CR17">
+        <f t="shared" si="13"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="CS17">
+        <f t="shared" si="13"/>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="CU17">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:BM18" si="14">ROUND(B7/$CU7*$CU18,3)</f>
+        <v>6.5460000000000003</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="14"/>
+        <v>6.5460000000000003</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="14"/>
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="14"/>
+        <v>2.032</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="14"/>
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>1.788</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="14"/>
+        <v>1.175</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="14"/>
+        <v>1.742</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="14"/>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="14"/>
+        <v>1.28</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="14"/>
+        <v>1.409</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="14"/>
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>1.409</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="14"/>
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="14"/>
+        <v>5.3159999999999998</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="14"/>
+        <v>6.4109999999999996</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>2.536</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="14"/>
+        <v>3.8570000000000002</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="14"/>
+        <v>1.544</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="14"/>
+        <v>1.498</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="14"/>
+        <v>1.498</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="14"/>
+        <v>1.212</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="14"/>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="14"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="14"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="14"/>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="14"/>
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="14"/>
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="14"/>
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="14"/>
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="14"/>
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="14"/>
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="14"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="14"/>
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="14"/>
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="14"/>
+        <v>2.1629999999999998</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="14"/>
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="14"/>
+        <v>1.89</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="14"/>
+        <v>1.89</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="14"/>
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="14"/>
+        <v>7.2309999999999999</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="14"/>
+        <v>6.9989999999999997</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="14"/>
+        <v>6.9989999999999997</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="14"/>
+        <v>4.1689999999999996</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="14"/>
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="14"/>
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="14"/>
+        <v>2.778</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="14"/>
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="14"/>
+        <v>2.242</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="14"/>
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="14"/>
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="14"/>
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="14"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="14"/>
+        <v>0.68</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="14"/>
+        <v>1.895</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="14"/>
+        <v>1.895</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="14"/>
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="BH18">
+        <f t="shared" si="14"/>
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" si="14"/>
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="14"/>
+        <v>0.501</v>
+      </c>
+      <c r="BK18">
+        <f t="shared" si="14"/>
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="BL18">
+        <f t="shared" si="14"/>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="BM18">
+        <f t="shared" si="14"/>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" ref="BN18:CS18" si="15">ROUND(BN7/$CU7*$CU18,3)</f>
+        <v>2.351</v>
+      </c>
+      <c r="BO18">
+        <f t="shared" si="15"/>
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="15"/>
+        <v>2.089</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" si="15"/>
+        <v>2.089</v>
+      </c>
+      <c r="BR18">
+        <f t="shared" si="15"/>
+        <v>3.585</v>
+      </c>
+      <c r="BS18">
+        <f t="shared" si="15"/>
+        <v>4.1970000000000001</v>
+      </c>
+      <c r="BT18">
+        <f t="shared" si="15"/>
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="BU18">
+        <f t="shared" si="15"/>
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="BV18">
+        <f t="shared" si="15"/>
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="BW18">
+        <f t="shared" si="15"/>
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="BX18">
+        <f t="shared" si="15"/>
+        <v>7.25</v>
+      </c>
+      <c r="BY18">
+        <f t="shared" si="15"/>
+        <v>5.4989999999999997</v>
+      </c>
+      <c r="BZ18">
+        <f t="shared" si="15"/>
+        <v>5.3070000000000004</v>
+      </c>
+      <c r="CA18">
+        <f t="shared" si="15"/>
+        <v>4.2830000000000004</v>
+      </c>
+      <c r="CB18">
+        <f t="shared" si="15"/>
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="CC18">
+        <f t="shared" si="15"/>
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="CD18">
+        <f t="shared" si="15"/>
+        <v>4.0190000000000001</v>
+      </c>
+      <c r="CE18">
+        <f t="shared" si="15"/>
+        <v>1.675</v>
+      </c>
+      <c r="CF18">
+        <f t="shared" si="15"/>
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="CG18">
+        <f t="shared" si="15"/>
+        <v>1.018</v>
+      </c>
+      <c r="CH18">
+        <f t="shared" si="15"/>
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="CI18">
+        <f t="shared" si="15"/>
+        <v>2.702</v>
+      </c>
+      <c r="CJ18">
+        <f t="shared" si="15"/>
+        <v>2.516</v>
+      </c>
+      <c r="CK18">
+        <f t="shared" si="15"/>
+        <v>2.516</v>
+      </c>
+      <c r="CL18">
+        <f t="shared" si="15"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="CM18">
+        <f t="shared" si="15"/>
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="CN18">
+        <f t="shared" si="15"/>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="CO18">
+        <f t="shared" si="15"/>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="CP18">
+        <f t="shared" si="15"/>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="CQ18">
+        <f t="shared" si="15"/>
+        <v>0.24</v>
+      </c>
+      <c r="CR18">
+        <f t="shared" si="15"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="CS18">
+        <f t="shared" si="15"/>
+        <v>0.375</v>
+      </c>
+      <c r="CU18">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:BM19" si="16">ROUND(B8/$CU8*$CU19,3)</f>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="16"/>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="16"/>
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="16"/>
+        <v>2.25</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="16"/>
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="16"/>
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="16"/>
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="16"/>
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="16"/>
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="16"/>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="16"/>
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="16"/>
+        <v>0.496</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="16"/>
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="16"/>
+        <v>1.72</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>1.724</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="16"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="16"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="16"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="16"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="16"/>
+        <v>0.16</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="16"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="16"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="16"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="16"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="16"/>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="16"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="16"/>
+        <v>0.115</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="16"/>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="16"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="16"/>
+        <v>0.115</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="16"/>
+        <v>0.128</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="16"/>
+        <v>0.128</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="16"/>
+        <v>0.124</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="16"/>
+        <v>0.251</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="16"/>
+        <v>0.156</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="16"/>
+        <v>0.152</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="16"/>
+        <v>0.105</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="16"/>
+        <v>0.152</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="16"/>
+        <v>0.105</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="16"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="16"/>
+        <v>0.113</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="16"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="16"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="16"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="16"/>
+        <v>0.109</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="16"/>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="16"/>
+        <v>0.17</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="16"/>
+        <v>0.188</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="16"/>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="16"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="16"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" si="16"/>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="16"/>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="16"/>
+        <v>0.496</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="16"/>
+        <v>0.49</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="16"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="16"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="16"/>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="BK19">
+        <f t="shared" si="16"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="BL19">
+        <f t="shared" si="16"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="BM19">
+        <f t="shared" si="16"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="BN19">
+        <f t="shared" ref="BN19:CS19" si="17">ROUND(BN8/$CU8*$CU19,3)</f>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="BO19">
+        <f t="shared" si="17"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="BP19">
+        <f t="shared" si="17"/>
+        <v>1.72</v>
+      </c>
+      <c r="BQ19">
+        <f t="shared" si="17"/>
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="BR19">
+        <f t="shared" si="17"/>
+        <v>0.247</v>
+      </c>
+      <c r="BS19">
+        <f t="shared" si="17"/>
+        <v>0.247</v>
+      </c>
+      <c r="BT19">
+        <f t="shared" si="17"/>
+        <v>0.188</v>
+      </c>
+      <c r="BU19">
+        <f t="shared" si="17"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="BV19">
+        <f t="shared" si="17"/>
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="BW19">
+        <f t="shared" si="17"/>
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="BX19">
+        <f t="shared" si="17"/>
+        <v>1.738</v>
+      </c>
+      <c r="BY19">
+        <f t="shared" si="17"/>
+        <v>1.615</v>
+      </c>
+      <c r="BZ19">
+        <f t="shared" si="17"/>
+        <v>1.024</v>
+      </c>
+      <c r="CA19">
+        <f t="shared" si="17"/>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="CB19">
+        <f t="shared" si="17"/>
+        <v>1.038</v>
+      </c>
+      <c r="CC19">
+        <f t="shared" si="17"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="CD19">
+        <f t="shared" si="17"/>
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="CE19">
+        <f t="shared" si="17"/>
+        <v>0.48</v>
+      </c>
+      <c r="CF19">
+        <f t="shared" si="17"/>
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="CG19">
+        <f t="shared" si="17"/>
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="CH19">
+        <f t="shared" si="17"/>
+        <v>1.097</v>
+      </c>
+      <c r="CI19">
+        <f t="shared" si="17"/>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="CJ19">
+        <f t="shared" si="17"/>
+        <v>0.502</v>
+      </c>
+      <c r="CK19">
+        <f t="shared" si="17"/>
+        <v>0.502</v>
+      </c>
+      <c r="CL19">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="CM19">
+        <f t="shared" si="17"/>
+        <v>0.18</v>
+      </c>
+      <c r="CN19">
+        <f t="shared" si="17"/>
+        <v>0.18</v>
+      </c>
+      <c r="CO19">
+        <f t="shared" si="17"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="CP19">
+        <f t="shared" si="17"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="CQ19">
+        <f t="shared" si="17"/>
+        <v>0.17</v>
+      </c>
+      <c r="CR19">
+        <f t="shared" si="17"/>
+        <v>0.221</v>
+      </c>
+      <c r="CS19">
+        <f t="shared" si="17"/>
+        <v>0.221</v>
+      </c>
+      <c r="CU19">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:BM20" si="18">ROUND(B9/$CU9*$CU20,3)</f>
+        <v>1.345</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="18"/>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="18"/>
+        <v>1.524</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="18"/>
+        <v>1.244</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="18"/>
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="18"/>
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="18"/>
+        <v>1.663</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="18"/>
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="18"/>
+        <v>1.867</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="18"/>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="18"/>
+        <v>1.448</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="18"/>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="18"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="18"/>
+        <v>1.252</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="18"/>
+        <v>1.669</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="18"/>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="18"/>
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="18"/>
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="18"/>
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="18"/>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="18"/>
+        <v>1.744</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="18"/>
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="18"/>
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="18"/>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="18"/>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="18"/>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="18"/>
+        <v>1.984</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="18"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="18"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="18"/>
+        <v>1.589</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="18"/>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="18"/>
+        <v>1.879</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="18"/>
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="18"/>
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="18"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="18"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="18"/>
+        <v>1.222</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="18"/>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="18"/>
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="18"/>
+        <v>1.671</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="18"/>
+        <v>1.415</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="18"/>
+        <v>1.714</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="18"/>
+        <v>1.659</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="18"/>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="18"/>
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="18"/>
+        <v>1.016</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="18"/>
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="18"/>
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="18"/>
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="18"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="18"/>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="18"/>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" si="18"/>
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="18"/>
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="BD20">
+        <f t="shared" si="18"/>
+        <v>0.877</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="18"/>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" si="18"/>
+        <v>1.972</v>
+      </c>
+      <c r="BG20">
+        <f t="shared" si="18"/>
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="BH20">
+        <f t="shared" si="18"/>
+        <v>1.698</v>
+      </c>
+      <c r="BI20">
+        <f t="shared" si="18"/>
+        <v>1.718</v>
+      </c>
+      <c r="BJ20">
+        <f t="shared" si="18"/>
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="BK20">
+        <f t="shared" si="18"/>
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="BL20">
+        <f t="shared" si="18"/>
+        <v>1.202</v>
+      </c>
+      <c r="BM20">
+        <f t="shared" si="18"/>
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="BN20">
+        <f t="shared" ref="BN20:CS20" si="19">ROUND(BN9/$CU9*$CU20,3)</f>
+        <v>1.31</v>
+      </c>
+      <c r="BO20">
+        <f t="shared" si="19"/>
+        <v>1.647</v>
+      </c>
+      <c r="BP20">
+        <f t="shared" si="19"/>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="BQ20">
+        <f t="shared" si="19"/>
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="BR20">
+        <f t="shared" si="19"/>
+        <v>0.99</v>
+      </c>
+      <c r="BS20">
+        <f t="shared" si="19"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="BT20">
+        <f t="shared" si="19"/>
+        <v>1.974</v>
+      </c>
+      <c r="BU20">
+        <f t="shared" si="19"/>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="BV20">
+        <f t="shared" si="19"/>
+        <v>1.913</v>
+      </c>
+      <c r="BW20">
+        <f t="shared" si="19"/>
+        <v>1.97</v>
+      </c>
+      <c r="BX20">
+        <f t="shared" si="19"/>
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="BY20">
+        <f t="shared" si="19"/>
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="BZ20">
+        <f t="shared" si="19"/>
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="CA20">
+        <f t="shared" si="19"/>
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="CB20">
+        <f t="shared" si="19"/>
+        <v>1.994</v>
+      </c>
+      <c r="CC20">
+        <f t="shared" si="19"/>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="CD20">
+        <f t="shared" si="19"/>
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="CE20">
+        <f t="shared" si="19"/>
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="CF20">
+        <f t="shared" si="19"/>
+        <v>1.57</v>
+      </c>
+      <c r="CG20">
+        <f t="shared" si="19"/>
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="CH20">
+        <f t="shared" si="19"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="CI20">
+        <f t="shared" si="19"/>
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="CJ20">
+        <f t="shared" si="19"/>
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="CK20">
+        <f t="shared" si="19"/>
+        <v>1.976</v>
+      </c>
+      <c r="CL20">
+        <f t="shared" si="19"/>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="CM20">
+        <f t="shared" si="19"/>
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="CN20">
+        <f t="shared" si="19"/>
+        <v>1.786</v>
+      </c>
+      <c r="CO20">
+        <f t="shared" si="19"/>
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="CP20">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="CQ20">
+        <f t="shared" si="19"/>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="CR20">
+        <f t="shared" si="19"/>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="CS20">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="CU20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:BM21" si="20">ROUND(B10/$CU10*$CU21,3)</f>
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="20"/>
+        <v>6.6779999999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="20"/>
+        <v>3.9540000000000002</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="20"/>
+        <v>5.1159999999999997</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="20"/>
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="20"/>
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="20"/>
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="20"/>
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="20"/>
+        <v>4.54</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="20"/>
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="20"/>
+        <v>2.641</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="20"/>
+        <v>4.585</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="20"/>
+        <v>7.1130000000000004</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="20"/>
+        <v>5.1769999999999996</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="20"/>
+        <v>5.51</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="20"/>
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="20"/>
+        <v>5.0709999999999997</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="20"/>
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="20"/>
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="20"/>
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="20"/>
+        <v>4.9260000000000002</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="20"/>
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="20"/>
+        <v>6.867</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="20"/>
+        <v>6.48</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="20"/>
+        <v>7.226</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="20"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="20"/>
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="20"/>
+        <v>6.6449999999999996</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="20"/>
+        <v>5.3540000000000001</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="20"/>
+        <v>6.3810000000000002</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="20"/>
+        <v>3.964</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="20"/>
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="20"/>
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="20"/>
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="20"/>
+        <v>6.41</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="20"/>
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="20"/>
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="20"/>
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="20"/>
+        <v>6.085</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="20"/>
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="20"/>
+        <v>5.5949999999999998</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="20"/>
+        <v>3.5830000000000002</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="20"/>
+        <v>3.2010000000000001</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="20"/>
+        <v>5.952</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="20"/>
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="20"/>
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="20"/>
+        <v>5.9950000000000001</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="20"/>
+        <v>2.92</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="20"/>
+        <v>3.758</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="20"/>
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="20"/>
+        <v>7.0730000000000004</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="20"/>
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="20"/>
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="20"/>
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" si="20"/>
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="20"/>
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" si="20"/>
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" si="20"/>
+        <v>5.6269999999999998</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="20"/>
+        <v>7.1230000000000002</v>
+      </c>
+      <c r="BI21">
+        <f t="shared" si="20"/>
+        <v>3.548</v>
+      </c>
+      <c r="BJ21">
+        <f t="shared" si="20"/>
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" si="20"/>
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="BL21">
+        <f t="shared" si="20"/>
+        <v>5.3220000000000001</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" si="20"/>
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="BN21">
+        <f t="shared" ref="BN21:CS21" si="21">ROUND(BN10/$CU10*$CU21,3)</f>
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="BO21">
+        <f t="shared" si="21"/>
+        <v>3.1520000000000001</v>
+      </c>
+      <c r="BP21">
+        <f t="shared" si="21"/>
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="BQ21">
+        <f t="shared" si="21"/>
+        <v>5.782</v>
+      </c>
+      <c r="BR21">
+        <f t="shared" si="21"/>
+        <v>6.0519999999999996</v>
+      </c>
+      <c r="BS21">
+        <f t="shared" si="21"/>
+        <v>5.5730000000000004</v>
+      </c>
+      <c r="BT21">
+        <f t="shared" si="21"/>
+        <v>6.1139999999999999</v>
+      </c>
+      <c r="BU21">
+        <f t="shared" si="21"/>
+        <v>4.8330000000000002</v>
+      </c>
+      <c r="BV21">
+        <f t="shared" si="21"/>
+        <v>6.5220000000000002</v>
+      </c>
+      <c r="BW21">
+        <f t="shared" si="21"/>
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="BX21">
+        <f t="shared" si="21"/>
+        <v>4.9180000000000001</v>
+      </c>
+      <c r="BY21">
+        <f t="shared" si="21"/>
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="BZ21">
+        <f t="shared" si="21"/>
+        <v>4.12</v>
+      </c>
+      <c r="CA21">
+        <f t="shared" si="21"/>
+        <v>3.121</v>
+      </c>
+      <c r="CB21">
+        <f t="shared" si="21"/>
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="CC21">
+        <f t="shared" si="21"/>
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="CD21">
+        <f t="shared" si="21"/>
+        <v>5.7619999999999996</v>
+      </c>
+      <c r="CE21">
+        <f t="shared" si="21"/>
+        <v>5.375</v>
+      </c>
+      <c r="CF21">
+        <f t="shared" si="21"/>
+        <v>4.7489999999999997</v>
+      </c>
+      <c r="CG21">
+        <f t="shared" si="21"/>
+        <v>6.02</v>
+      </c>
+      <c r="CH21">
+        <f t="shared" si="21"/>
+        <v>7.25</v>
+      </c>
+      <c r="CI21">
+        <f t="shared" si="21"/>
+        <v>4.7210000000000001</v>
+      </c>
+      <c r="CJ21">
+        <f t="shared" si="21"/>
+        <v>4.5910000000000002</v>
+      </c>
+      <c r="CK21">
+        <f t="shared" si="21"/>
+        <v>6.0819999999999999</v>
+      </c>
+      <c r="CL21">
+        <f t="shared" si="21"/>
+        <v>6.98</v>
+      </c>
+      <c r="CM21">
+        <f t="shared" si="21"/>
+        <v>4.2489999999999997</v>
+      </c>
+      <c r="CN21">
+        <f t="shared" si="21"/>
+        <v>6.2249999999999996</v>
+      </c>
+      <c r="CO21">
+        <f t="shared" si="21"/>
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="CP21">
+        <f t="shared" si="21"/>
+        <v>3.379</v>
+      </c>
+      <c r="CQ21">
+        <f t="shared" si="21"/>
+        <v>6.2960000000000003</v>
+      </c>
+      <c r="CR21">
+        <f t="shared" si="21"/>
+        <v>5.1870000000000003</v>
+      </c>
+      <c r="CS21">
+        <f t="shared" si="21"/>
+        <v>3.58</v>
+      </c>
+      <c r="CU21">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:BM22" si="22">ROUND(B11/$CU11*$CU22,3)</f>
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="22"/>
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="22"/>
+        <v>3.96</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="22"/>
+        <v>3.5059999999999998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="22"/>
+        <v>5.1710000000000003</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="22"/>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="22"/>
+        <v>3.6309999999999998</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="22"/>
+        <v>6.1139999999999999</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="22"/>
+        <v>3.177</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="22"/>
+        <v>5.4829999999999997</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="22"/>
+        <v>5.2439999999999998</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="22"/>
+        <v>5.5940000000000003</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="22"/>
+        <v>2.887</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="22"/>
+        <v>4.407</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="22"/>
+        <v>6.25</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="22"/>
+        <v>2.738</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="22"/>
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="22"/>
+        <v>6.03</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="22"/>
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="22"/>
+        <v>4.8890000000000002</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="22"/>
+        <v>2.21</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="22"/>
+        <v>4.5140000000000002</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="22"/>
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="22"/>
+        <v>5.9119999999999999</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="22"/>
+        <v>4.54</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="22"/>
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="22"/>
+        <v>4.7359999999999998</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="22"/>
+        <v>3.202</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="22"/>
+        <v>2.762</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="22"/>
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="22"/>
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="22"/>
+        <v>2.59</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="22"/>
+        <v>3.7949999999999999</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="22"/>
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="22"/>
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="22"/>
+        <v>6.2480000000000002</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="22"/>
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="22"/>
+        <v>5.5549999999999997</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="22"/>
+        <v>5.2869999999999999</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="22"/>
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="22"/>
+        <v>3.2280000000000002</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="22"/>
+        <v>5.5229999999999997</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="22"/>
+        <v>4.9329999999999998</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="22"/>
+        <v>2.323</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="22"/>
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="22"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="22"/>
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="22"/>
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="22"/>
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="22"/>
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="22"/>
+        <v>5.4489999999999998</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="22"/>
+        <v>2.4940000000000002</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="22"/>
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="22"/>
+        <v>4.9729999999999999</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" si="22"/>
+        <v>3.653</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="22"/>
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="22"/>
+        <v>3.266</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="22"/>
+        <v>2.625</v>
+      </c>
+      <c r="BH22">
+        <f t="shared" si="22"/>
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="BI22">
+        <f t="shared" si="22"/>
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="BJ22">
+        <f t="shared" si="22"/>
+        <v>3.92</v>
+      </c>
+      <c r="BK22">
+        <f t="shared" si="22"/>
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="BL22">
+        <f t="shared" si="22"/>
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="BM22">
+        <f t="shared" si="22"/>
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="BN22">
+        <f t="shared" ref="BN22:CS22" si="23">ROUND(BN11/$CU11*$CU22,3)</f>
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="BO22">
+        <f t="shared" si="23"/>
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="BP22">
+        <f t="shared" si="23"/>
+        <v>5.3239999999999998</v>
+      </c>
+      <c r="BQ22">
+        <f t="shared" si="23"/>
+        <v>3.984</v>
+      </c>
+      <c r="BR22">
+        <f t="shared" si="23"/>
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="BS22">
+        <f t="shared" si="23"/>
+        <v>4.4489999999999998</v>
+      </c>
+      <c r="BT22">
+        <f t="shared" si="23"/>
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="BU22">
+        <f t="shared" si="23"/>
+        <v>3.544</v>
+      </c>
+      <c r="BV22">
+        <f t="shared" si="23"/>
+        <v>2.597</v>
+      </c>
+      <c r="BW22">
+        <f t="shared" si="23"/>
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="BX22">
+        <f t="shared" si="23"/>
+        <v>3.95</v>
+      </c>
+      <c r="BY22">
+        <f t="shared" si="23"/>
+        <v>2.92</v>
+      </c>
+      <c r="BZ22">
+        <f t="shared" si="23"/>
+        <v>4.6589999999999998</v>
+      </c>
+      <c r="CA22">
+        <f t="shared" si="23"/>
+        <v>3.468</v>
+      </c>
+      <c r="CB22">
+        <f t="shared" si="23"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="CC22">
+        <f t="shared" si="23"/>
+        <v>5.9109999999999996</v>
+      </c>
+      <c r="CD22">
+        <f t="shared" si="23"/>
+        <v>4.3979999999999997</v>
+      </c>
+      <c r="CE22">
+        <f t="shared" si="23"/>
+        <v>4.2859999999999996</v>
+      </c>
+      <c r="CF22">
+        <f t="shared" si="23"/>
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="CG22">
+        <f t="shared" si="23"/>
+        <v>4.6230000000000002</v>
+      </c>
+      <c r="CH22">
+        <f t="shared" si="23"/>
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="CI22">
+        <f t="shared" si="23"/>
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="CJ22">
+        <f t="shared" si="23"/>
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="CK22">
+        <f t="shared" si="23"/>
+        <v>4.194</v>
+      </c>
+      <c r="CL22">
+        <f t="shared" si="23"/>
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="CM22">
+        <f t="shared" si="23"/>
+        <v>3.206</v>
+      </c>
+      <c r="CN22">
+        <f t="shared" si="23"/>
+        <v>4.9820000000000002</v>
+      </c>
+      <c r="CO22">
+        <f t="shared" si="23"/>
+        <v>5.577</v>
+      </c>
+      <c r="CP22">
+        <f t="shared" si="23"/>
+        <v>4.306</v>
+      </c>
+      <c r="CQ22">
+        <f t="shared" si="23"/>
+        <v>5.9779999999999998</v>
+      </c>
+      <c r="CR22">
+        <f t="shared" si="23"/>
+        <v>2.516</v>
+      </c>
+      <c r="CS22">
+        <f t="shared" si="23"/>
+        <v>6.2320000000000002</v>
+      </c>
+      <c r="CU22">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>